--- a/08_xls/data.xlsx
+++ b/08_xls/data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevTools\Go\src\github.com\gmdmgithub\go_first\08_xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC5681-1746-4EB0-BFB6-E498616747E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="town1" sheetId="3" relationships:id="rId2"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="town2" sheetId="4" relationships:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="town1" sheetId="3" r:id="rId2"/>
+    <sheet name="town2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -320,8 +326,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,16 +339,10 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -355,16 +355,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normalny" xfId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -383,10 +383,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="3"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -443,9 +443,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="41000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -541,9 +539,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="52000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,9 +635,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="63000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -737,9 +731,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="74000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -835,9 +827,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="84000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -933,9 +923,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="95000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1032,7 +1020,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:shade val="94000"/>
+                <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1129,8 +1117,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="83000"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1227,8 +1215,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="73000"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1325,8 +1313,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="62000"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1423,8 +1411,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="51000"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1521,8 +1509,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="40000"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1921,7 +1909,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -3225,8 +3213,42 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -4280,16 +4302,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4321,16 +4343,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>537210</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4654,16 +4676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B927"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4671,7 +4693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4679,7 +4701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4687,7 +4709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4695,7 +4717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4703,7 +4725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4711,7 +4733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4719,7 +4741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4727,7 +4749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4735,7 +4757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4743,7 +4765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4751,7 +4773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4759,7 +4781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4767,7 +4789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4775,7 +4797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4783,7 +4805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4791,7 +4813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4799,7 +4821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4807,7 +4829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4815,7 +4837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -4823,7 +4845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -4831,7 +4853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -4839,7 +4861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -4847,7 +4869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -4855,7 +4877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -4863,7 +4885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -4871,7 +4893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -4879,7 +4901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4887,7 +4909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -4895,7 +4917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -4903,7 +4925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -4911,7 +4933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4919,7 +4941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -4935,7 +4957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -4943,7 +4965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -4951,7 +4973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -4959,7 +4981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -4967,7 +4989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -4975,7 +4997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -4983,7 +5005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -4991,7 +5013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -4999,7 +5021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -5007,7 +5029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -5015,7 +5037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -5023,7 +5045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -5031,7 +5053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -5039,7 +5061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -5047,7 +5069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -5055,7 +5077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -5063,7 +5085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -5071,7 +5093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -5079,7 +5101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -5087,7 +5109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -5095,7 +5117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -5103,7 +5125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -5111,7 +5133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -5119,7 +5141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -5127,7 +5149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -5135,7 +5157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -5143,7 +5165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -5151,7 +5173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -5159,7 +5181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -5167,7 +5189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -5175,7 +5197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -5183,7 +5205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -5191,7 +5213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -5199,7 +5221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -5207,7 +5229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -5215,7 +5237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -5223,7 +5245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -5231,7 +5253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -5239,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -5247,7 +5269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -5255,7 +5277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -5263,7 +5285,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -5271,7 +5293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -5279,7 +5301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -5287,7 +5309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -5295,7 +5317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -5303,7 +5325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -5311,7 +5333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -5319,7 +5341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -5327,7 +5349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -5335,7 +5357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -5343,7 +5365,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -5351,7 +5373,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -5359,7 +5381,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -5367,7 +5389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -5375,7 +5397,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5383,7 +5405,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5391,7 +5413,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5399,7 +5421,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5407,7 +5429,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5415,7 +5437,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -5423,7 +5445,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -5431,7 +5453,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -5439,7 +5461,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -5447,7 +5469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -5455,7 +5477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -5463,7 +5485,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -5471,7 +5493,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -5479,7 +5501,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -5487,7 +5509,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -5495,7 +5517,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -5503,7 +5525,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -5511,7 +5533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -5519,7 +5541,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -5527,7 +5549,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -5535,7 +5557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -5543,7 +5565,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -5551,7 +5573,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -5559,7 +5581,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -5567,7 +5589,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -5575,7 +5597,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -5583,7 +5605,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -5591,7 +5613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -5599,7 +5621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -5607,7 +5629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -5615,7 +5637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -5623,7 +5645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -5631,7 +5653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -5639,7 +5661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -5647,7 +5669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -5655,7 +5677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -5663,7 +5685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>25</v>
       </c>
@@ -5679,7 +5701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -5687,7 +5709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -5695,7 +5717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -5703,7 +5725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -5711,7 +5733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -5719,7 +5741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -5727,7 +5749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -5735,7 +5757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -5743,7 +5765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -5751,7 +5773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -5759,7 +5781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -5767,7 +5789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -5775,7 +5797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -5783,7 +5805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -5791,7 +5813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -5799,7 +5821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>28</v>
       </c>
@@ -5807,7 +5829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>29</v>
       </c>
@@ -5815,7 +5837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>91</v>
       </c>
@@ -5823,7 +5845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -5831,7 +5853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -5839,7 +5861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -5847,7 +5869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -5855,7 +5877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -5863,7 +5885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -5871,7 +5893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -5879,7 +5901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -5887,7 +5909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -5895,7 +5917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -5903,7 +5925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>32</v>
       </c>
@@ -5911,7 +5933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -5919,7 +5941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>32</v>
       </c>
@@ -5927,7 +5949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>32</v>
       </c>
@@ -5935,7 +5957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -5943,7 +5965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -5951,7 +5973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>32</v>
       </c>
@@ -5959,7 +5981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -5967,7 +5989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -5975,7 +5997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -5983,7 +6005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -5991,7 +6013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>32</v>
       </c>
@@ -5999,7 +6021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>32</v>
       </c>
@@ -6007,7 +6029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>32</v>
       </c>
@@ -6015,7 +6037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>33</v>
       </c>
@@ -6023,7 +6045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>33</v>
       </c>
@@ -6031,7 +6053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>33</v>
       </c>
@@ -6039,7 +6061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>33</v>
       </c>
@@ -6047,7 +6069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>33</v>
       </c>
@@ -6055,7 +6077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>33</v>
       </c>
@@ -6063,7 +6085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>33</v>
       </c>
@@ -6071,7 +6093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>33</v>
       </c>
@@ -6079,7 +6101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -6087,7 +6109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>33</v>
       </c>
@@ -6095,7 +6117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>34</v>
       </c>
@@ -6103,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>34</v>
       </c>
@@ -6111,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>34</v>
       </c>
@@ -6119,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>94</v>
       </c>
@@ -6127,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>94</v>
       </c>
@@ -6135,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -6143,7 +6165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>35</v>
       </c>
@@ -6151,7 +6173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>35</v>
       </c>
@@ -6159,7 +6181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>35</v>
       </c>
@@ -6167,7 +6189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>35</v>
       </c>
@@ -6175,7 +6197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>35</v>
       </c>
@@ -6183,7 +6205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -6191,7 +6213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -6199,7 +6221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>36</v>
       </c>
@@ -6207,7 +6229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -6215,7 +6237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -6223,7 +6245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -6231,7 +6253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>36</v>
       </c>
@@ -6239,7 +6261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>36</v>
       </c>
@@ -6247,7 +6269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -6255,7 +6277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>37</v>
       </c>
@@ -6263,7 +6285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>37</v>
       </c>
@@ -6271,7 +6293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>37</v>
       </c>
@@ -6279,7 +6301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -6287,7 +6309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -6295,7 +6317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>37</v>
       </c>
@@ -6303,7 +6325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -6311,7 +6333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>37</v>
       </c>
@@ -6319,7 +6341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -6327,7 +6349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -6335,7 +6357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>37</v>
       </c>
@@ -6343,7 +6365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>37</v>
       </c>
@@ -6351,7 +6373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -6359,7 +6381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -6367,7 +6389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -6375,7 +6397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -6383,7 +6405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>38</v>
       </c>
@@ -6391,7 +6413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -6399,7 +6421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -6407,7 +6429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>39</v>
       </c>
@@ -6415,7 +6437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>39</v>
       </c>
@@ -6423,7 +6445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>39</v>
       </c>
@@ -6431,7 +6453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>39</v>
       </c>
@@ -6439,7 +6461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>39</v>
       </c>
@@ -6447,7 +6469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1</v>
       </c>
@@ -6455,7 +6477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -6463,7 +6485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1</v>
       </c>
@@ -6471,7 +6493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1</v>
       </c>
@@ -6479,7 +6501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -6487,7 +6509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1</v>
       </c>
@@ -6495,7 +6517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -6503,7 +6525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -6511,7 +6533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1</v>
       </c>
@@ -6519,7 +6541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1</v>
       </c>
@@ -6527,7 +6549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1</v>
       </c>
@@ -6535,7 +6557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>40</v>
       </c>
@@ -6543,7 +6565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>40</v>
       </c>
@@ -6551,7 +6573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>40</v>
       </c>
@@ -6559,7 +6581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>40</v>
       </c>
@@ -6567,7 +6589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -6575,7 +6597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>40</v>
       </c>
@@ -6583,7 +6605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>40</v>
       </c>
@@ -6591,7 +6613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>40</v>
       </c>
@@ -6599,7 +6621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>40</v>
       </c>
@@ -6607,7 +6629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>40</v>
       </c>
@@ -6615,7 +6637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>40</v>
       </c>
@@ -6623,7 +6645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>40</v>
       </c>
@@ -6631,7 +6653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>41</v>
       </c>
@@ -6639,7 +6661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>41</v>
       </c>
@@ -6647,7 +6669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>41</v>
       </c>
@@ -6655,7 +6677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>41</v>
       </c>
@@ -6663,7 +6685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>41</v>
       </c>
@@ -6671,7 +6693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>41</v>
       </c>
@@ -6679,7 +6701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>41</v>
       </c>
@@ -6687,7 +6709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>42</v>
       </c>
@@ -6695,7 +6717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>42</v>
       </c>
@@ -6703,7 +6725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>42</v>
       </c>
@@ -6711,7 +6733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>42</v>
       </c>
@@ -6719,7 +6741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>42</v>
       </c>
@@ -6727,7 +6749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>42</v>
       </c>
@@ -6735,7 +6757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>42</v>
       </c>
@@ -6743,7 +6765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>42</v>
       </c>
@@ -6751,7 +6773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>42</v>
       </c>
@@ -6759,7 +6781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>43</v>
       </c>
@@ -6767,7 +6789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>43</v>
       </c>
@@ -6775,7 +6797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>43</v>
       </c>
@@ -6783,7 +6805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>44</v>
       </c>
@@ -6791,7 +6813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>44</v>
       </c>
@@ -6799,7 +6821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>44</v>
       </c>
@@ -6807,7 +6829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>45</v>
       </c>
@@ -6815,7 +6837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>45</v>
       </c>
@@ -6823,7 +6845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>45</v>
       </c>
@@ -6831,7 +6853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>45</v>
       </c>
@@ -6839,7 +6861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>45</v>
       </c>
@@ -6847,7 +6869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>45</v>
       </c>
@@ -6855,7 +6877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>46</v>
       </c>
@@ -6863,7 +6885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>46</v>
       </c>
@@ -6871,7 +6893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>46</v>
       </c>
@@ -6879,7 +6901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>46</v>
       </c>
@@ -6887,7 +6909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>46</v>
       </c>
@@ -6895,7 +6917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>46</v>
       </c>
@@ -6903,7 +6925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>46</v>
       </c>
@@ -6911,7 +6933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>47</v>
       </c>
@@ -6919,7 +6941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>47</v>
       </c>
@@ -6927,7 +6949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>47</v>
       </c>
@@ -6935,7 +6957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>47</v>
       </c>
@@ -6943,7 +6965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>47</v>
       </c>
@@ -6951,7 +6973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>47</v>
       </c>
@@ -6959,7 +6981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>47</v>
       </c>
@@ -6967,7 +6989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>47</v>
       </c>
@@ -6975,7 +6997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>2</v>
       </c>
@@ -6983,7 +7005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>2</v>
       </c>
@@ -6991,7 +7013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -6999,7 +7021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>2</v>
       </c>
@@ -7007,7 +7029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>2</v>
       </c>
@@ -7015,7 +7037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>48</v>
       </c>
@@ -7023,7 +7045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>48</v>
       </c>
@@ -7031,7 +7053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>48</v>
       </c>
@@ -7039,7 +7061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>48</v>
       </c>
@@ -7047,7 +7069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>48</v>
       </c>
@@ -7055,7 +7077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>48</v>
       </c>
@@ -7063,7 +7085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>48</v>
       </c>
@@ -7071,7 +7093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>48</v>
       </c>
@@ -7079,7 +7101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>48</v>
       </c>
@@ -7087,7 +7109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>48</v>
       </c>
@@ -7095,7 +7117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>48</v>
       </c>
@@ -7103,7 +7125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>48</v>
       </c>
@@ -7111,7 +7133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>48</v>
       </c>
@@ -7119,7 +7141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>49</v>
       </c>
@@ -7127,7 +7149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>49</v>
       </c>
@@ -7135,7 +7157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>49</v>
       </c>
@@ -7143,7 +7165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>49</v>
       </c>
@@ -7151,7 +7173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>49</v>
       </c>
@@ -7159,7 +7181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>50</v>
       </c>
@@ -7167,7 +7189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>50</v>
       </c>
@@ -7175,7 +7197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>50</v>
       </c>
@@ -7183,7 +7205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>50</v>
       </c>
@@ -7191,7 +7213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>51</v>
       </c>
@@ -7199,7 +7221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>51</v>
       </c>
@@ -7207,7 +7229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>51</v>
       </c>
@@ -7215,7 +7237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>52</v>
       </c>
@@ -7223,7 +7245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>52</v>
       </c>
@@ -7231,7 +7253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>52</v>
       </c>
@@ -7239,7 +7261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>52</v>
       </c>
@@ -7247,7 +7269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>52</v>
       </c>
@@ -7255,7 +7277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>53</v>
       </c>
@@ -7263,7 +7285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>53</v>
       </c>
@@ -7271,7 +7293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>53</v>
       </c>
@@ -7279,7 +7301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>54</v>
       </c>
@@ -7287,7 +7309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>54</v>
       </c>
@@ -7295,7 +7317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>54</v>
       </c>
@@ -7303,7 +7325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>54</v>
       </c>
@@ -7311,7 +7333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>55</v>
       </c>
@@ -7319,7 +7341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>55</v>
       </c>
@@ -7327,7 +7349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>55</v>
       </c>
@@ -7335,7 +7357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>55</v>
       </c>
@@ -7343,7 +7365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>55</v>
       </c>
@@ -7351,7 +7373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>56</v>
       </c>
@@ -7359,7 +7381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>56</v>
       </c>
@@ -7367,7 +7389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>56</v>
       </c>
@@ -7375,7 +7397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>56</v>
       </c>
@@ -7383,7 +7405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>56</v>
       </c>
@@ -7391,7 +7413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>56</v>
       </c>
@@ -7399,7 +7421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>57</v>
       </c>
@@ -7407,7 +7429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>57</v>
       </c>
@@ -7415,7 +7437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>57</v>
       </c>
@@ -7423,7 +7445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>57</v>
       </c>
@@ -7431,7 +7453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>57</v>
       </c>
@@ -7439,7 +7461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>58</v>
       </c>
@@ -7447,7 +7469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>58</v>
       </c>
@@ -7455,7 +7477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>58</v>
       </c>
@@ -7463,7 +7485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>58</v>
       </c>
@@ -7471,7 +7493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>58</v>
       </c>
@@ -7479,7 +7501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>58</v>
       </c>
@@ -7487,7 +7509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>58</v>
       </c>
@@ -7495,7 +7517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>59</v>
       </c>
@@ -7503,7 +7525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>59</v>
       </c>
@@ -7511,7 +7533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>59</v>
       </c>
@@ -7519,7 +7541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>60</v>
       </c>
@@ -7527,7 +7549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>60</v>
       </c>
@@ -7535,7 +7557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>60</v>
       </c>
@@ -7543,7 +7565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>60</v>
       </c>
@@ -7551,7 +7573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>60</v>
       </c>
@@ -7559,7 +7581,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>60</v>
       </c>
@@ -7567,7 +7589,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>60</v>
       </c>
@@ -7575,7 +7597,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>60</v>
       </c>
@@ -7583,7 +7605,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>61</v>
       </c>
@@ -7591,7 +7613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>61</v>
       </c>
@@ -7599,7 +7621,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>61</v>
       </c>
@@ -7607,7 +7629,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>62</v>
       </c>
@@ -7615,7 +7637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>62</v>
       </c>
@@ -7623,7 +7645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>62</v>
       </c>
@@ -7631,7 +7653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>63</v>
       </c>
@@ -7639,7 +7661,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>63</v>
       </c>
@@ -7647,7 +7669,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>63</v>
       </c>
@@ -7655,7 +7677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>64</v>
       </c>
@@ -7663,7 +7685,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>64</v>
       </c>
@@ -7671,7 +7693,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>64</v>
       </c>
@@ -7679,7 +7701,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>64</v>
       </c>
@@ -7687,7 +7709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>65</v>
       </c>
@@ -7695,7 +7717,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>65</v>
       </c>
@@ -7703,7 +7725,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>65</v>
       </c>
@@ -7711,7 +7733,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>66</v>
       </c>
@@ -7719,7 +7741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>66</v>
       </c>
@@ -7727,7 +7749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>66</v>
       </c>
@@ -7735,7 +7757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>66</v>
       </c>
@@ -7743,7 +7765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>66</v>
       </c>
@@ -7751,7 +7773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>66</v>
       </c>
@@ -7759,7 +7781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>66</v>
       </c>
@@ -7767,7 +7789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>66</v>
       </c>
@@ -7775,7 +7797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>67</v>
       </c>
@@ -7783,7 +7805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>67</v>
       </c>
@@ -7791,7 +7813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>67</v>
       </c>
@@ -7799,7 +7821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>67</v>
       </c>
@@ -7807,7 +7829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>67</v>
       </c>
@@ -7815,7 +7837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>3</v>
       </c>
@@ -7823,7 +7845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>3</v>
       </c>
@@ -7831,7 +7853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>3</v>
       </c>
@@ -7839,7 +7861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>3</v>
       </c>
@@ -7847,7 +7869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>3</v>
       </c>
@@ -7855,7 +7877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>3</v>
       </c>
@@ -7863,7 +7885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>3</v>
       </c>
@@ -7871,7 +7893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>3</v>
       </c>
@@ -7879,7 +7901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>68</v>
       </c>
@@ -7887,7 +7909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>68</v>
       </c>
@@ -7895,7 +7917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>68</v>
       </c>
@@ -7903,7 +7925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>68</v>
       </c>
@@ -7911,7 +7933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>69</v>
       </c>
@@ -7919,7 +7941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>69</v>
       </c>
@@ -7927,7 +7949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>69</v>
       </c>
@@ -7935,7 +7957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>69</v>
       </c>
@@ -7943,7 +7965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>69</v>
       </c>
@@ -7951,7 +7973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>69</v>
       </c>
@@ -7959,7 +7981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>4</v>
       </c>
@@ -7967,7 +7989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>4</v>
       </c>
@@ -7975,7 +7997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>4</v>
       </c>
@@ -7983,7 +8005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>4</v>
       </c>
@@ -7991,7 +8013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -7999,7 +8021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -8007,7 +8029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>5</v>
       </c>
@@ -8015,7 +8037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>5</v>
       </c>
@@ -8023,7 +8045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -8031,7 +8053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -8039,7 +8061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -8047,7 +8069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -8055,7 +8077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>5</v>
       </c>
@@ -8063,7 +8085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>5</v>
       </c>
@@ -8071,7 +8093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>70</v>
       </c>
@@ -8079,7 +8101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>70</v>
       </c>
@@ -8087,7 +8109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>71</v>
       </c>
@@ -8095,7 +8117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>71</v>
       </c>
@@ -8103,7 +8125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>71</v>
       </c>
@@ -8111,7 +8133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>71</v>
       </c>
@@ -8119,7 +8141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>71</v>
       </c>
@@ -8127,7 +8149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>72</v>
       </c>
@@ -8135,7 +8157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>72</v>
       </c>
@@ -8143,7 +8165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>72</v>
       </c>
@@ -8151,7 +8173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>92</v>
       </c>
@@ -8159,7 +8181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>73</v>
       </c>
@@ -8167,7 +8189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>73</v>
       </c>
@@ -8175,7 +8197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>73</v>
       </c>
@@ -8183,7 +8205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>73</v>
       </c>
@@ -8191,7 +8213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>73</v>
       </c>
@@ -8199,7 +8221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>74</v>
       </c>
@@ -8207,7 +8229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>74</v>
       </c>
@@ -8215,7 +8237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>74</v>
       </c>
@@ -8223,7 +8245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>74</v>
       </c>
@@ -8231,7 +8253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>74</v>
       </c>
@@ -8239,7 +8261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>75</v>
       </c>
@@ -8247,7 +8269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>75</v>
       </c>
@@ -8255,7 +8277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>75</v>
       </c>
@@ -8263,7 +8285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>75</v>
       </c>
@@ -8271,7 +8293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>75</v>
       </c>
@@ -8279,7 +8301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>75</v>
       </c>
@@ -8287,7 +8309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>75</v>
       </c>
@@ -8295,7 +8317,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>76</v>
       </c>
@@ -8303,7 +8325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>76</v>
       </c>
@@ -8311,7 +8333,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>76</v>
       </c>
@@ -8319,7 +8341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>76</v>
       </c>
@@ -8327,7 +8349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>76</v>
       </c>
@@ -8335,7 +8357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>76</v>
       </c>
@@ -8343,7 +8365,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>77</v>
       </c>
@@ -8351,7 +8373,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>77</v>
       </c>
@@ -8359,7 +8381,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>77</v>
       </c>
@@ -8367,7 +8389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>77</v>
       </c>
@@ -8375,7 +8397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>77</v>
       </c>
@@ -8383,7 +8405,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>78</v>
       </c>
@@ -8391,7 +8413,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>78</v>
       </c>
@@ -8399,7 +8421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>78</v>
       </c>
@@ -8407,7 +8429,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>78</v>
       </c>
@@ -8415,7 +8437,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>78</v>
       </c>
@@ -8423,7 +8445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>78</v>
       </c>
@@ -8431,7 +8453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>79</v>
       </c>
@@ -8439,7 +8461,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>79</v>
       </c>
@@ -8447,7 +8469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>79</v>
       </c>
@@ -8455,7 +8477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>79</v>
       </c>
@@ -8463,7 +8485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>79</v>
       </c>
@@ -8471,7 +8493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>79</v>
       </c>
@@ -8479,7 +8501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>79</v>
       </c>
@@ -8487,7 +8509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>79</v>
       </c>
@@ -8495,7 +8517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>80</v>
       </c>
@@ -8503,7 +8525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>80</v>
       </c>
@@ -8511,7 +8533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>80</v>
       </c>
@@ -8519,7 +8541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>80</v>
       </c>
@@ -8527,7 +8549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>80</v>
       </c>
@@ -8535,7 +8557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>6</v>
       </c>
@@ -8543,7 +8565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>6</v>
       </c>
@@ -8551,7 +8573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -8559,7 +8581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>6</v>
       </c>
@@ -8567,7 +8589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>6</v>
       </c>
@@ -8575,7 +8597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>81</v>
       </c>
@@ -8583,7 +8605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>81</v>
       </c>
@@ -8591,7 +8613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>81</v>
       </c>
@@ -8599,7 +8621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>81</v>
       </c>
@@ -8607,7 +8629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>81</v>
       </c>
@@ -8615,7 +8637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>81</v>
       </c>
@@ -8623,7 +8645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>81</v>
       </c>
@@ -8631,7 +8653,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>81</v>
       </c>
@@ -8639,7 +8661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>81</v>
       </c>
@@ -8647,7 +8669,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>81</v>
       </c>
@@ -8655,7 +8677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>81</v>
       </c>
@@ -8663,7 +8685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>82</v>
       </c>
@@ -8671,7 +8693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>82</v>
       </c>
@@ -8679,7 +8701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>83</v>
       </c>
@@ -8687,7 +8709,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>83</v>
       </c>
@@ -8695,7 +8717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>83</v>
       </c>
@@ -8703,7 +8725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>83</v>
       </c>
@@ -8711,7 +8733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>83</v>
       </c>
@@ -8719,7 +8741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>84</v>
       </c>
@@ -8727,7 +8749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>84</v>
       </c>
@@ -8735,7 +8757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>84</v>
       </c>
@@ -8743,7 +8765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>84</v>
       </c>
@@ -8751,7 +8773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>85</v>
       </c>
@@ -8759,7 +8781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>85</v>
       </c>
@@ -8767,7 +8789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>85</v>
       </c>
@@ -8775,7 +8797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>85</v>
       </c>
@@ -8783,7 +8805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>86</v>
       </c>
@@ -8791,7 +8813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>86</v>
       </c>
@@ -8799,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>87</v>
       </c>
@@ -8807,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>87</v>
       </c>
@@ -8815,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>87</v>
       </c>
@@ -8823,7 +8845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>87</v>
       </c>
@@ -8831,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>87</v>
       </c>
@@ -8839,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>87</v>
       </c>
@@ -8847,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>87</v>
       </c>
@@ -8855,7 +8877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>87</v>
       </c>
@@ -8863,7 +8885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>88</v>
       </c>
@@ -8871,7 +8893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>88</v>
       </c>
@@ -8879,7 +8901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>88</v>
       </c>
@@ -8887,7 +8909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>88</v>
       </c>
@@ -8895,7 +8917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>89</v>
       </c>
@@ -8903,7 +8925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>89</v>
       </c>
@@ -8911,2002 +8933,2002 @@
         <v>41</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B538" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="540" spans="1:2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B540" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B542" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B543" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B544" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="545" spans="2:2">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B545" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B546" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="547" spans="2:2">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B547" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B548" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B550" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="551" spans="2:2">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B551" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="552" spans="2:2">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B552" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="553" spans="2:2">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B553" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="554" spans="2:2">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B554" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="555" spans="2:2">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B555" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="556" spans="2:2">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B556" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="557" spans="2:2">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B557" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="558" spans="2:2">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B558" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="559" spans="2:2">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B559" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="560" spans="2:2">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B560" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="561" spans="2:2">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B561" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="562" spans="2:2">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B562" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="563" spans="2:2">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B563" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="564" spans="2:2">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B564" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="565" spans="2:2">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B565" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="566" spans="2:2">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B566" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="567" spans="2:2">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B567" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="568" spans="2:2">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B568" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="569" spans="2:2">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B569" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="570" spans="2:2">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B570" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="571" spans="2:2">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B571" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="572" spans="2:2">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B572" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="2:2">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B573" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="574" spans="2:2">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B574" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="575" spans="2:2">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B575" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="576" spans="2:2">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="577" spans="2:2">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B577" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="578" spans="2:2">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B578" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="579" spans="2:2">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B579" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="580" spans="2:2">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B580" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="581" spans="2:2">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B581" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="582" spans="2:2">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B582" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="583" spans="2:2">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B583" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="584" spans="2:2">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B584" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="585" spans="2:2">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B585" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="586" spans="2:2">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B586" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="587" spans="2:2">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B587" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="588" spans="2:2">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B588" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="589" spans="2:2">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B589" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="590" spans="2:2">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B590" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="591" spans="2:2">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B591" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="592" spans="2:2">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B592" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B593" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B594" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B595" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B596" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="2:2">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B597" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="2:2">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B598" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="2:2">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B599" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="2:2">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B600" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="601" spans="2:2">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B601" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="602" spans="2:2">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B602" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="603" spans="2:2">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B603" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="604" spans="2:2">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B604" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="605" spans="2:2">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B605" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="606" spans="2:2">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B606" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="607" spans="2:2">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B607" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="608" spans="2:2">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B608" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B609" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B610" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B611" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="612" spans="2:2">
+    <row r="612" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B612" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B613" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="614" spans="2:2">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B614" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="615" spans="2:2">
+    <row r="615" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B615" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="616" spans="2:2">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B616" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="617" spans="2:2">
+    <row r="617" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B617" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="618" spans="2:2">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B618" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="619" spans="2:2">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B619" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="620" spans="2:2">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B620" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="621" spans="2:2">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B621" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="622" spans="2:2">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B622" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="623" spans="2:2">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B623" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="624" spans="2:2">
+    <row r="624" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B624" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="625" spans="2:2">
+    <row r="625" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B625" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="626" spans="2:2">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B626" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="627" spans="2:2">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B627" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="628" spans="2:2">
+    <row r="628" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B628" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="629" spans="2:2">
+    <row r="629" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B629" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="630" spans="2:2">
+    <row r="630" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B630" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="631" spans="2:2">
+    <row r="631" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B631" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="632" spans="2:2">
+    <row r="632" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B632" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="633" spans="2:2">
+    <row r="633" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B633" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="634" spans="2:2">
+    <row r="634" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B634" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="635" spans="2:2">
+    <row r="635" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B635" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="636" spans="2:2">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B636" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="637" spans="2:2">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B637" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="638" spans="2:2">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B638" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="639" spans="2:2">
+    <row r="639" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B639" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="640" spans="2:2">
+    <row r="640" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B640" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="641" spans="2:2">
+    <row r="641" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B641" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="642" spans="2:2">
+    <row r="642" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B642" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="643" spans="2:2">
+    <row r="643" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B643" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="644" spans="2:2">
+    <row r="644" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B644" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="645" spans="2:2">
+    <row r="645" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B645" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="646" spans="2:2">
+    <row r="646" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B646" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="647" spans="2:2">
+    <row r="647" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B647" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="648" spans="2:2">
+    <row r="648" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B648" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="649" spans="2:2">
+    <row r="649" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B649" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="650" spans="2:2">
+    <row r="650" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B650" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="651" spans="2:2">
+    <row r="651" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B651" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="652" spans="2:2">
+    <row r="652" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B652" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="653" spans="2:2">
+    <row r="653" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B653" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="654" spans="2:2">
+    <row r="654" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B654" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="655" spans="2:2">
+    <row r="655" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B655" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="656" spans="2:2">
+    <row r="656" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B656" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="657" spans="2:2">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B657" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="658" spans="2:2">
+    <row r="658" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B658" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="659" spans="2:2">
+    <row r="659" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B659" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="660" spans="2:2">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B660" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="661" spans="2:2">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B661" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="662" spans="2:2">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B662" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="663" spans="2:2">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B663" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="664" spans="2:2">
+    <row r="664" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B664" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="665" spans="2:2">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B665" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="666" spans="2:2">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B666" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="667" spans="2:2">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B667" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="668" spans="2:2">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B668" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="669" spans="2:2">
+    <row r="669" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B669" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="670" spans="2:2">
+    <row r="670" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B670" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="671" spans="2:2">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B671" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="672" spans="2:2">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B672" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="673" spans="2:2">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B673" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="674" spans="2:2">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B674" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="675" spans="2:2">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B675" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="676" spans="2:2">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B676" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="677" spans="2:2">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B677" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="678" spans="2:2">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B678" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="679" spans="2:2">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B679" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="680" spans="2:2">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B680" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="681" spans="2:2">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B681" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="682" spans="2:2">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B682" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="683" spans="2:2">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B683" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="684" spans="2:2">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B684" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="685" spans="2:2">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B685" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="686" spans="2:2">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B686" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="687" spans="2:2">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B687" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="688" spans="2:2">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B688" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B689" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B690" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B691" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B692" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B693" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B694" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B695" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B696" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="697" spans="2:2">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B697" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="698" spans="2:2">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B698" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B699" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="700" spans="2:2">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B700" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="701" spans="2:2">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B701" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="702" spans="2:2">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B702" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="703" spans="2:2">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B703" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="704" spans="2:2">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B704" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="705" spans="2:2">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B705" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="706" spans="2:2">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B706" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="707" spans="2:2">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B707" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="708" spans="2:2">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B708" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="709" spans="2:2">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B709" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="710" spans="2:2">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B710" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="711" spans="2:2">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B711" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="712" spans="2:2">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B712" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="713" spans="2:2">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B713" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="714" spans="2:2">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B714" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="715" spans="2:2">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B715" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="716" spans="2:2">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B716" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="717" spans="2:2">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B717" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="718" spans="2:2">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B718" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="719" spans="2:2">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B719" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="720" spans="2:2">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B720" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="721" spans="2:2">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B721" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="722" spans="2:2">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B722" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="723" spans="2:2">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B723" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="724" spans="2:2">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B724" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="725" spans="2:2">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B725" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="726" spans="2:2">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B726" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="727" spans="2:2">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B727" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="728" spans="2:2">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B728" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="729" spans="2:2">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B729" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="730" spans="2:2">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B730" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="731" spans="2:2">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B731" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="732" spans="2:2">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B732" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="733" spans="2:2">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B733" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="734" spans="2:2">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B734" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="735" spans="2:2">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B735" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="736" spans="2:2">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B736" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="737" spans="2:2">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B737" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="738" spans="2:2">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B738" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="739" spans="2:2">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B739" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="740" spans="2:2">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B740" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="741" spans="2:2">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B741" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="742" spans="2:2">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B742" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="743" spans="2:2">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B743" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="744" spans="2:2">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B744" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="745" spans="2:2">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B745" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="746" spans="2:2">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B746" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="747" spans="2:2">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B747" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="748" spans="2:2">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B748" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="749" spans="2:2">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B749" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="750" spans="2:2">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B750" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="751" spans="2:2">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B751" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="752" spans="2:2">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B752" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="753" spans="2:2">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B753" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="754" spans="2:2">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B754" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="755" spans="2:2">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B755" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="756" spans="2:2">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B756" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="757" spans="2:2">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B757" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="758" spans="2:2">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B758" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="759" spans="2:2">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B759" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="760" spans="2:2">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B760" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="761" spans="2:2">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B761" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="762" spans="2:2">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B762" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="763" spans="2:2">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B763" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="764" spans="2:2">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B764" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="765" spans="2:2">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B765" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="766" spans="2:2">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B766" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="767" spans="2:2">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B767" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="768" spans="2:2">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B768" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="769" spans="2:2">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B769" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="770" spans="2:2">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B770" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="771" spans="2:2">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B771" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="772" spans="2:2">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B772" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="773" spans="2:2">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B773" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="774" spans="2:2">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B774" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="775" spans="2:2">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B775" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="776" spans="2:2">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B776" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="777" spans="2:2">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B777" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="2:2">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B778" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="779" spans="2:2">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B779" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="780" spans="2:2">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B780" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B781" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="782" spans="2:2">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B782" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="783" spans="2:2">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B783" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="784" spans="2:2">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B784" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="785" spans="2:2">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B785" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="786" spans="2:2">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B786" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="787" spans="2:2">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B787" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="788" spans="2:2">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B788" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="789" spans="2:2">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B789" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="790" spans="2:2">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B790" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="791" spans="2:2">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B791" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="792" spans="2:2">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B792" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="793" spans="2:2">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B793" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="794" spans="2:2">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B794" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="795" spans="2:2">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B795" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="796" spans="2:2">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B796" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="797" spans="2:2">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B797" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="798" spans="2:2">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B798" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="799" spans="2:2">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B799" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="800" spans="2:2">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B800" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="801" spans="2:2">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B801" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="802" spans="2:2">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B802" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="803" spans="2:2">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B803" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="804" spans="2:2">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B804" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="805" spans="2:2">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B805" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="806" spans="2:2">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B806" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="807" spans="2:2">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B807" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="808" spans="2:2">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B808" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="809" spans="2:2">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B809" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="810" spans="2:2">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B810" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="811" spans="2:2">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B811" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="812" spans="2:2">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B812" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="813" spans="2:2">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B813" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="814" spans="2:2">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B814" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="815" spans="2:2">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B815" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="816" spans="2:2">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B816" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="817" spans="2:2">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B817" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="818" spans="2:2">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B818" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="819" spans="2:2">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B819" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="820" spans="2:2">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B820" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="821" spans="2:2">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B821" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="822" spans="2:2">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B822" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="823" spans="2:2">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B823" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="824" spans="2:2">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B824" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="825" spans="2:2">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B825" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="826" spans="2:2">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B826" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="827" spans="2:2">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B827" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="828" spans="2:2">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B828" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="829" spans="2:2">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B829" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="830" spans="2:2">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B830" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="831" spans="2:2">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B831" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="832" spans="2:2">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B832" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="833" spans="2:2">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B833" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="834" spans="2:2">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B834" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="835" spans="2:2">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B835" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="836" spans="2:2">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B836" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="837" spans="2:2">
+    <row r="837" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B837" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="838" spans="2:2">
+    <row r="838" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B838" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="839" spans="2:2">
+    <row r="839" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B839" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="840" spans="2:2">
+    <row r="840" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B840" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="841" spans="2:2">
+    <row r="841" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B841" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="842" spans="2:2">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B842" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="843" spans="2:2">
+    <row r="843" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B843" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="844" spans="2:2">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B844" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="845" spans="2:2">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B845" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="846" spans="2:2">
+    <row r="846" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B846" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="847" spans="2:2">
+    <row r="847" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B847" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="848" spans="2:2">
+    <row r="848" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B848" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="849" spans="2:2">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B849" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="850" spans="2:2">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B850" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="851" spans="2:2">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B851" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="852" spans="2:2">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B852" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="853" spans="2:2">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B853" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="854" spans="2:2">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B854" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="855" spans="2:2">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B855" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="856" spans="2:2">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B856" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="857" spans="2:2">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B857" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="858" spans="2:2">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B858" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="859" spans="2:2">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B859" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="860" spans="2:2">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B860" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="861" spans="2:2">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B861" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="862" spans="2:2">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B862" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="863" spans="2:2">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B863" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="864" spans="2:2">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B864" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="865" spans="2:2">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B865" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="866" spans="2:2">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B866" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="867" spans="2:2">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B867" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="868" spans="2:2">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B868" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="869" spans="2:2">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B869" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="870" spans="2:2">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B870" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="871" spans="2:2">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B871" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="872" spans="2:2">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B872" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="873" spans="2:2">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B873" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="874" spans="2:2">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B874" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="875" spans="2:2">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B875" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="876" spans="2:2">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B876" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="877" spans="2:2">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B877" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="878" spans="2:2">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B878" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="879" spans="2:2">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B879" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="880" spans="2:2">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B880" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="881" spans="2:2">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B881" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="882" spans="2:2">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B882" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="883" spans="2:2">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B883" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="884" spans="2:2">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B884" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="885" spans="2:2">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B885" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="886" spans="2:2">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B886" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="887" spans="2:2">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B887" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="888" spans="2:2">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B888" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="889" spans="2:2">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B889" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="890" spans="2:2">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B890" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="891" spans="2:2">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B891" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="892" spans="2:2">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B892" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="893" spans="2:2">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B893" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="894" spans="2:2">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B894" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="895" spans="2:2">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B895" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="896" spans="2:2">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B896" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="897" spans="2:2">
+    <row r="897" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B897" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="898" spans="2:2">
+    <row r="898" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B898" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="899" spans="2:2">
+    <row r="899" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B899" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="900" spans="2:2">
+    <row r="900" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B900" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="901" spans="2:2">
+    <row r="901" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B901" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="902" spans="2:2">
+    <row r="902" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B902" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="903" spans="2:2">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B903" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="904" spans="2:2">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B904" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="905" spans="2:2">
+    <row r="905" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B905" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="906" spans="2:2">
+    <row r="906" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B906" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="907" spans="2:2">
+    <row r="907" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B907" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="908" spans="2:2">
+    <row r="908" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B908" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="909" spans="2:2">
+    <row r="909" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B909" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="910" spans="2:2">
+    <row r="910" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B910" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="911" spans="2:2">
+    <row r="911" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B911" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="912" spans="2:2">
+    <row r="912" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B912" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="913" spans="2:2">
+    <row r="913" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B913" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="914" spans="2:2">
+    <row r="914" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B914" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="915" spans="2:2">
+    <row r="915" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B915" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="916" spans="2:2">
+    <row r="916" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B916" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="917" spans="2:2">
+    <row r="917" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B917" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="918" spans="2:2">
+    <row r="918" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B918" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="919" spans="2:2">
+    <row r="919" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B919" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="920" spans="2:2">
+    <row r="920" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B920" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="921" spans="2:2">
+    <row r="921" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B921" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="922" spans="2:2">
+    <row r="922" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B922" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="923" spans="2:2">
+    <row r="923" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B923" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="924" spans="2:2">
+    <row r="924" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B924" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="925" spans="2:2">
+    <row r="925" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B925" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="926" spans="2:2">
+    <row r="926" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B926" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="927" spans="2:2">
+    <row r="927" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B927" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2008</v>
       </c>
@@ -10932,7 +10954,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10961,7 +10983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10990,7 +11012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11019,7 +11041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11048,7 +11070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11077,7 +11099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11106,7 +11128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11135,7 +11157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11164,7 +11186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11193,7 +11215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11222,7 +11244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11251,7 +11273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11281,22 +11303,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2008</v>
       </c>
@@ -11322,7 +11344,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11351,7 +11373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11380,7 +11402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11409,7 +11431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11438,7 +11460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11467,7 +11489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11496,7 +11518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11525,7 +11547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11554,7 +11576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11583,7 +11605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11612,7 +11634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11641,7 +11663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11671,7 +11693,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>